--- a/biology/Zoologie/Hoploplana/Hoploplana.xlsx
+++ b/biology/Zoologie/Hoploplana/Hoploplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoploplanidae
 Hoploplana est un genre de vers plats marins, le seul de la famille des Hoploplanidae qui appartient à la super-famille des Stylochoidea (sous-ordre des Acotylea, ordre des Polycladida).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,13 +552,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille : Hoploplanidae Stummer-Traunfels, 1933[1]
-pour le genre : Hoploplana Laidlaw, 1902[1].
-Liste des espèces
-Selon World Register of Marine Species                               (19 novembre 2023)[1] :
+pour la famille : Hoploplanidae Stummer-Traunfels, 1933
+pour le genre : Hoploplana Laidlaw, 1902.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hoploplana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hoploplana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 novembre 2023) :
 Hoploplana californica Hyman, 1953
 Hoploplana cupida Kato, 1938
 Hoploplana deanna Kato, 1939
@@ -560,8 +610,43 @@
 Hoploplana schizoporellae Kato, 1944
 Hoploplana usaguia Smith, 1960
 Hoploplana villosa (Lang, 1884)
-Synonymes, reclassements
-l'espèce Hoploplana grubei (Graff, 1892) est reclassée comme Chatziplana grubei (Graff, 1892) (famille des Stylochocestidae)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hoploplana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hoploplana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>l'espèce Hoploplana grubei (Graff, 1892) est reclassée comme Chatziplana grubei (Graff, 1892) (famille des Stylochocestidae)
 l'espèce Hoploplana schizoparellae Kato, 1944 est Hoploplana schizoporellae Kato, 1944
 l'espèce Hoploplana thaisana Pearse, 1938 est Hoploplana inquilina (Wheeler, 1894)</t>
         </is>
